--- a/data/estoque.xlsx
+++ b/data/estoque.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$2:$C$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$2:$C$52</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>PRODUTO</t>
   </si>
@@ -47,9 +47,6 @@
     <t>ALCATRA C/QJO</t>
   </si>
   <si>
-    <t>MSM</t>
-  </si>
-  <si>
     <t>MANTA SUINA</t>
   </si>
   <si>
@@ -186,6 +183,12 @@
   </si>
   <si>
     <t>HAMB. CARA PRETA</t>
+  </si>
+  <si>
+    <t>DENVER STEAK CARA PRETA</t>
+  </si>
+  <si>
+    <t>ASSADO DE TIRAS</t>
   </si>
 </sst>
 </file>
@@ -551,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +569,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6">
-        <v>44708</v>
+        <v>44717</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="8"/>
@@ -589,286 +592,285 @@
         <v>5</v>
       </c>
       <c r="B3" s="4">
-        <v>13.528</v>
+        <v>3.452</v>
       </c>
       <c r="C3" s="2">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2">
-        <v>18.645</v>
+        <v>6.4649999999999999</v>
       </c>
       <c r="C4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="4">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4">
-        <v>7</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="4">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="C9" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>5</v>
+      <c r="C10" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2">
-        <v>1.91</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2">
-        <v>1.708</v>
+        <v>1.01</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2">
-        <v>7.3150000000000004</v>
+        <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2">
-        <v>16</v>
+        <v>12.37</v>
       </c>
       <c r="C16" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2">
-        <f>31*0.5</f>
-        <v>15.5</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2">
-        <f>6*0.5</f>
-        <v>3</v>
+        <f>21*0.3</f>
+        <v>6.3</v>
       </c>
       <c r="C20" s="2">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2">
-        <f>8*0.5</f>
-        <v>4</v>
+        <f>21*0.5</f>
+        <v>10.5</v>
       </c>
       <c r="C21" s="2">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B24" s="2">
-        <f>13*0.5</f>
-        <v>6.5</v>
+        <f>7*0.5</f>
+        <v>3.5</v>
       </c>
       <c r="C24" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B25" s="2">
-        <v>1.41</v>
+        <v>4.5</v>
       </c>
       <c r="C25" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B26" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C26" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B27" s="2">
-        <v>3</v>
+        <v>1.41</v>
       </c>
       <c r="C27" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B28" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -876,18 +878,18 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2">
         <v>3</v>
@@ -898,77 +900,77 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C31" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C32" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C34" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2">
-        <f>4.798+3.6</f>
-        <v>8.3979999999999997</v>
+        <v>2</v>
       </c>
       <c r="C35" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>13.01</v>
+        <v>4</v>
       </c>
       <c r="C36" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B37" s="2">
-        <v>2.91</v>
+        <f>3.6+1.178</f>
+        <v>4.7780000000000005</v>
       </c>
       <c r="C37" s="2">
         <v>4</v>
@@ -976,45 +978,43 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B38" s="2">
-        <f>4.562+3.256</f>
-        <v>7.8179999999999996</v>
+        <v>1.0980000000000001</v>
       </c>
       <c r="C38" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B39" s="2">
-        <v>13.225</v>
+        <v>2.94</v>
       </c>
       <c r="C39" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2">
-        <v>22.055</v>
+        <v>4.5439999999999996</v>
       </c>
       <c r="C40" s="2">
-        <f>12+9</f>
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>6</v>
+        <v>38</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1.55</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -1022,40 +1022,40 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B42" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C42" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B43" s="2">
-        <v>4</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C43" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B44" s="2">
-        <v>6.8049999999999997</v>
+        <v>5</v>
       </c>
       <c r="C44" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B45" s="2">
         <v>4</v>
@@ -1066,69 +1066,91 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B46" s="2">
+        <v>4.7839999999999998</v>
+      </c>
+      <c r="C46" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B47" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C47" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="2">
-        <v>11.5</v>
-      </c>
-      <c r="C48" s="2">
-        <f>11.5/0.5</f>
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C49" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="C50" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>6</v>
+      <c r="B52" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="2">
+        <f>26*0.5</f>
+        <v>13</v>
+      </c>
+      <c r="C53" s="4">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:C50"/>
+  <autoFilter ref="A2:C52"/>
   <sortState ref="A3:C42">
     <sortCondition ref="A2"/>
   </sortState>
